--- a/all_books.xlsx
+++ b/all_books.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Book Code</t>
   </si>
@@ -36,106 +36,148 @@
     <t xml:space="preserve">Book Price</t>
   </si>
   <si>
-    <t>5435</t>
-  </si>
-  <si>
-    <t>dasdasdas</t>
-  </si>
-  <si>
-    <t>fdsfsda</t>
+    <t>789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concept of physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book for IIT/JEE</t>
+  </si>
+  <si>
+    <t>studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hc verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bharti bhawan</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd sharma class 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book for ncert class 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd sharma</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harry potter book 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magic adventure book</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk rowling</t>
+  </si>
+  <si>
+    <t>pottermore</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>ramayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religious books</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>6454</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>book12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biography </t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>mahabharat</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>book1234</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>book_author</t>
+  </si>
+  <si>
+    <t>book_publisher</t>
+  </si>
+  <si>
+    <t>6568</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>mybook</t>
   </si>
   <si>
     <t>non-fiction</t>
   </si>
   <si>
-    <t>fsd</t>
-  </si>
-  <si>
-    <t>fsdaSA</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>2131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rs agrawal</t>
-  </si>
-  <si>
-    <t>asdfsd</t>
-  </si>
-  <si>
-    <t>studies</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>book12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">good book123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP Malhotra</t>
-  </si>
-  <si>
-    <t>pottermore</t>
+    <t>author</t>
+  </si>
+  <si>
+    <t>publisher</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class 12 math</t>
-  </si>
-  <si>
-    <t>ytdyts6usukfukfdrytdc</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>5489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">science ncert</t>
-  </si>
-  <si>
-    <t>dasfguioiu</t>
-  </si>
-  <si>
-    <t>fiction</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>dasaf</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>8924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maths ncert</t>
-  </si>
-  <si>
-    <t>ffsdhygf9ogh9</t>
-  </si>
-  <si>
-    <t>ncert</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>book_1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book_1234 </t>
+  </si>
+  <si>
+    <t>465</t>
   </si>
 </sst>
 </file>
@@ -687,11 +729,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="13.7109375"/>
-    <col customWidth="1" min="4" max="4" width="20.28125"/>
-    <col customWidth="1" min="5" max="5" width="14.57421875"/>
-    <col customWidth="1" min="6" max="6" width="23.28125"/>
-    <col customWidth="1" min="7" max="7" width="14.00390625"/>
+    <col customWidth="1" min="3" max="3" width="16.00390625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -736,45 +774,45 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="G2">
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -788,71 +826,157 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B9" t="s">
         <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
